--- a/data/interim_data/InternatCrickSalspartcleaneddata.xlsx
+++ b/data/interim_data/InternatCrickSalspartcleaneddata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="270">
   <si>
     <t>Players</t>
   </si>
@@ -34,6 +34,9 @@
     <t>T20 Fee</t>
   </si>
   <si>
+    <t>Base_sal_pounds</t>
+  </si>
+  <si>
     <t>Babar Azam</t>
   </si>
   <si>
@@ -607,22 +610,22 @@
     <t>300,500 PKR per month</t>
   </si>
   <si>
-    <t xml:space="preserve">7 Crores </t>
-  </si>
-  <si>
-    <t>7 Crores per month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Crores </t>
-  </si>
-  <si>
-    <t>5 Crores</t>
-  </si>
-  <si>
-    <t>3 Crores</t>
-  </si>
-  <si>
-    <t>1 Crores</t>
+    <t xml:space="preserve">7 0000000 </t>
+  </si>
+  <si>
+    <t>7 0000000 per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 0000000 </t>
+  </si>
+  <si>
+    <t>5 0000000</t>
+  </si>
+  <si>
+    <t>3 0000000</t>
+  </si>
+  <si>
+    <t>1 0000000</t>
   </si>
   <si>
     <t>£925,000 (plus undisclosed captain allowance)</t>
@@ -733,16 +736,13 @@
     <t>PKR 30,000</t>
   </si>
   <si>
-    <t>15 lakh</t>
-  </si>
-  <si>
-    <t>18 lakh</t>
-  </si>
-  <si>
-    <t>5 lakh</t>
-  </si>
-  <si>
-    <t>$3.5k</t>
+    <t>15 00000</t>
+  </si>
+  <si>
+    <t>18 00000</t>
+  </si>
+  <si>
+    <t>5 00000</t>
   </si>
   <si>
     <t>$15,000</t>
@@ -775,10 +775,7 @@
     <t>PKR 14,500</t>
   </si>
   <si>
-    <t>6 lakh</t>
-  </si>
-  <si>
-    <t>7.2 lakh</t>
+    <t>6 00000</t>
   </si>
   <si>
     <t>$18,000</t>
@@ -805,10 +802,7 @@
     <t>PKR 10,000</t>
   </si>
   <si>
-    <t>3 Lakh</t>
-  </si>
-  <si>
-    <t>3.6 Lakh</t>
+    <t>3 00000</t>
   </si>
   <si>
     <t>$20,000</t>
@@ -1187,13 +1181,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,114 +1206,129 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H2">
+        <v>59184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H3">
+        <v>59184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>249</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H4">
+        <v>59184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
         <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H5">
+        <v>59184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1327,68 +1336,77 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="H7">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="H8">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1396,45 +1414,51 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="H10">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
         <v>250</v>
@@ -1442,45 +1466,51 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H12">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
         <v>251</v>
@@ -1488,91 +1518,103 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H14">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
         <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H15">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
         <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H16">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
         <v>251</v>
@@ -1580,22 +1622,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
         <v>251</v>
@@ -1603,45 +1648,51 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F19" t="s">
         <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H19">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1649,663 +1700,750 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H21">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
         <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H22">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>241</v>
+      </c>
+      <c r="F23">
+        <v>720000</v>
+      </c>
+      <c r="G23">
+        <v>360000</v>
+      </c>
+      <c r="H23">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
         <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H24">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
         <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H25">
+        <v>495000.0000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
         <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H26">
+        <v>495000.0000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H27">
+        <v>495000.0000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
         <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H28">
+        <v>495000.0000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
         <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H29">
+        <v>495000.0000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" t="s">
         <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H30">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F31" t="s">
         <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H31">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
         <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H32">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H33">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F34" t="s">
         <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H34">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
         <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H35">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" t="s">
         <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H36">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H37">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H38">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H39">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>253</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H40">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
         <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H41">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42" t="s">
         <v>253</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H42">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H43">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F44" t="s">
         <v>253</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H44">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
         <v>253</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H45">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
         <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H46">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>242</v>
+        <v>203</v>
+      </c>
+      <c r="E47">
+        <v>1500000</v>
       </c>
       <c r="F47" t="s">
         <v>253</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H47">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" t="s">
-        <v>242</v>
+        <v>203</v>
+      </c>
+      <c r="E48">
+        <v>1500000</v>
       </c>
       <c r="F48" t="s">
         <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H48">
+        <v>99000.00000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E49">
         <v>14500</v>
@@ -2316,16 +2454,19 @@
       <c r="G49">
         <v>4500</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D50">
         <v>925000</v>
@@ -2339,16 +2480,19 @@
       <c r="G50">
         <v>4500</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51">
         <v>925000</v>
@@ -2362,19 +2506,22 @@
       <c r="G51">
         <v>4500</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52">
         <v>14500</v>
@@ -2385,16 +2532,19 @@
       <c r="G52">
         <v>4500</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D53">
         <v>925000</v>
@@ -2408,16 +2558,19 @@
       <c r="G53">
         <v>4500</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D54">
         <v>925000</v>
@@ -2431,16 +2584,19 @@
       <c r="G54">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D55">
         <v>925000</v>
@@ -2454,16 +2610,19 @@
       <c r="G55">
         <v>4500</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D56">
         <v>925000</v>
@@ -2477,16 +2636,19 @@
       <c r="G56">
         <v>4500</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D57">
         <v>925000</v>
@@ -2500,16 +2662,19 @@
       <c r="G57">
         <v>4500</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58">
         <v>925000</v>
@@ -2523,16 +2688,19 @@
       <c r="G58">
         <v>4500</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59">
         <v>925000</v>
@@ -2546,16 +2714,19 @@
       <c r="G59">
         <v>4500</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60">
         <v>925000</v>
@@ -2569,16 +2740,19 @@
       <c r="G60">
         <v>4500</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61">
         <v>925000</v>
@@ -2592,16 +2766,19 @@
       <c r="G61">
         <v>4500</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62">
         <v>925000</v>
@@ -2615,16 +2792,19 @@
       <c r="G62">
         <v>4500</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63">
         <v>925000</v>
@@ -2638,16 +2818,19 @@
       <c r="G63">
         <v>4500</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64">
         <v>925000</v>
@@ -2661,16 +2844,19 @@
       <c r="G64">
         <v>4500</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65">
         <v>925000</v>
@@ -2684,16 +2870,19 @@
       <c r="G65">
         <v>4500</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66">
         <v>925000</v>
@@ -2707,16 +2896,19 @@
       <c r="G66">
         <v>4500</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67">
         <v>925000</v>
@@ -2730,16 +2922,19 @@
       <c r="G67">
         <v>4500</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68">
         <v>925000</v>
@@ -2753,824 +2948,932 @@
       <c r="G68">
         <v>4500</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
         <v>243</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H69">
+        <v>1210537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
         <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H70">
+        <v>807025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E71" t="s">
         <v>243</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H71">
+        <v>807025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
         <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H72">
+        <v>688500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
         <v>243</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H73">
+        <v>688500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H74">
+        <v>59184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E75" t="s">
         <v>243</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H75">
+        <v>607500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
         <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H76">
+        <v>567000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
         <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H77">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
         <v>243</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H78">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
         <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H79">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
         <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H80">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s">
         <v>243</v>
       </c>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H81">
+        <v>222750</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H82">
+        <v>222750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
         <v>243</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H83">
+        <v>222750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
         <v>243</v>
       </c>
       <c r="F84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H84">
+        <v>222750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
         <v>243</v>
       </c>
       <c r="F85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H85">
+        <v>222750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
         <v>244</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H86">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
         <v>244</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H87">
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
         <v>244</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H88">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E89" t="s">
         <v>244</v>
       </c>
       <c r="F89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G89" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H89">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E90" t="s">
         <v>244</v>
       </c>
       <c r="F90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H90">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
         <v>244</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H91">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
         <v>244</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H92">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
         <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G93" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H93">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
         <v>244</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H94">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
         <v>244</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G95" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H95">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E96" t="s">
         <v>244</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H96">
+        <v>60750.00000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>244</v>
       </c>
       <c r="F97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H97">
+        <v>60750.00000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
         <v>244</v>
       </c>
       <c r="F98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H98">
+        <v>60750.00000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
         <v>244</v>
       </c>
       <c r="F99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H99">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
         <v>244</v>
       </c>
       <c r="F100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G100" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H100">
+        <v>60750.00000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
         <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H101">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
         <v>245</v>
       </c>
       <c r="F102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H102">
+        <v>356400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H103">
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3579,44 +3882,50 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H104">
+        <v>145800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E105" t="s">
         <v>245</v>
       </c>
       <c r="F105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E106" t="s">
         <v>245</v>
@@ -3625,90 +3934,102 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H106">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H107">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E108" t="s">
         <v>245</v>
       </c>
       <c r="F108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>166265.46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E109" t="s">
         <v>245</v>
       </c>
       <c r="F109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H109">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3717,21 +4038,24 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H110">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" t="s">
         <v>245</v>
@@ -3742,131 +4066,149 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
         <v>245</v>
       </c>
       <c r="F112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G112" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H112">
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H113">
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E114" t="s">
         <v>245</v>
       </c>
       <c r="F114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H114">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E115" t="s">
         <v>245</v>
       </c>
       <c r="F115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G115" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H115">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E116" t="s">
         <v>245</v>
       </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G116" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H116">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3875,70 +4217,79 @@
         <v>245</v>
       </c>
       <c r="F117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E118" t="s">
         <v>245</v>
       </c>
       <c r="F118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>166265.46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E119" t="s">
         <v>245</v>
       </c>
       <c r="F119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G119" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H119">
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E120" t="s">
         <v>245</v>
@@ -3949,19 +4300,22 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>69323.85000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E121" t="s">
         <v>246</v>
@@ -3970,21 +4324,24 @@
         <v>244</v>
       </c>
       <c r="G121" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H121">
+        <v>64800.00000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E122" t="s">
         <v>246</v>
@@ -3993,21 +4350,24 @@
         <v>244</v>
       </c>
       <c r="G122" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H122">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
         <v>246</v>
@@ -4016,21 +4376,24 @@
         <v>244</v>
       </c>
       <c r="G123" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H123">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E124" t="s">
         <v>246</v>
@@ -4039,21 +4402,24 @@
         <v>244</v>
       </c>
       <c r="G124" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H124">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E125" t="s">
         <v>246</v>
@@ -4062,21 +4428,24 @@
         <v>244</v>
       </c>
       <c r="G125" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H125">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E126" t="s">
         <v>246</v>
@@ -4085,21 +4454,24 @@
         <v>244</v>
       </c>
       <c r="G126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H126">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E127" t="s">
         <v>246</v>
@@ -4108,21 +4480,24 @@
         <v>244</v>
       </c>
       <c r="G127" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H127">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
         <v>246</v>
@@ -4131,21 +4506,24 @@
         <v>244</v>
       </c>
       <c r="G128" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H128">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E129" t="s">
         <v>246</v>
@@ -4154,21 +4532,24 @@
         <v>244</v>
       </c>
       <c r="G129" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H129">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E130" t="s">
         <v>246</v>
@@ -4177,21 +4558,24 @@
         <v>244</v>
       </c>
       <c r="G130" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H130">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E131" t="s">
         <v>246</v>
@@ -4200,21 +4584,24 @@
         <v>244</v>
       </c>
       <c r="G131" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H131">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E132" t="s">
         <v>246</v>
@@ -4223,21 +4610,24 @@
         <v>244</v>
       </c>
       <c r="G132" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H132">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E133" t="s">
         <v>246</v>
@@ -4246,21 +4636,24 @@
         <v>244</v>
       </c>
       <c r="G133" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H133">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E134" t="s">
         <v>246</v>
@@ -4269,21 +4662,24 @@
         <v>244</v>
       </c>
       <c r="G134" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H134">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E135" t="s">
         <v>246</v>
@@ -4292,21 +4688,24 @@
         <v>244</v>
       </c>
       <c r="G135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H135">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E136" t="s">
         <v>246</v>
@@ -4315,21 +4714,24 @@
         <v>244</v>
       </c>
       <c r="G136" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H136">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E137" t="s">
         <v>246</v>
@@ -4338,21 +4740,24 @@
         <v>244</v>
       </c>
       <c r="G137" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H137">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E138" t="s">
         <v>246</v>
@@ -4361,455 +4766,515 @@
         <v>244</v>
       </c>
       <c r="G138" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H138">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E139" t="s">
         <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G139" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H139">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E140" t="s">
         <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G140" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H140">
+        <v>64800.00000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E141" t="s">
         <v>247</v>
       </c>
       <c r="F141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G141" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H141">
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E142" t="s">
         <v>247</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G142" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H142">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E143" t="s">
         <v>247</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G143" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H143">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E144" t="s">
         <v>247</v>
       </c>
       <c r="F144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G144" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H144">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E145" t="s">
         <v>247</v>
       </c>
       <c r="F145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G145" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H145">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E146" t="s">
         <v>247</v>
       </c>
       <c r="F146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G146" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H146">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E147" t="s">
         <v>247</v>
       </c>
       <c r="F147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G147" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H147">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E148" t="s">
         <v>247</v>
       </c>
       <c r="F148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G148" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H148">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E149" t="s">
         <v>247</v>
       </c>
       <c r="F149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G149" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H149">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E150" t="s">
         <v>247</v>
       </c>
       <c r="F150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G150" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H150">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E151" t="s">
         <v>247</v>
       </c>
       <c r="F151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G151" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H151">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D152" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E152" t="s">
         <v>247</v>
       </c>
       <c r="F152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G152" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H152">
+        <v>28350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E153" t="s">
         <v>247</v>
       </c>
       <c r="F153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G153" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H153">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E154" t="s">
         <v>247</v>
       </c>
       <c r="F154" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H154">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E155" t="s">
         <v>247</v>
       </c>
       <c r="F155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H155">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D156" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E156" t="s">
         <v>247</v>
       </c>
       <c r="F156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G156" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H156">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E157" t="s">
         <v>248</v>
       </c>
       <c r="F157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G157" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H157">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -4818,44 +5283,50 @@
         <v>248</v>
       </c>
       <c r="F158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G158" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D159" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E159" t="s">
         <v>248</v>
       </c>
       <c r="F159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G159" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H159">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4864,21 +5335,24 @@
         <v>248</v>
       </c>
       <c r="F160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G160" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4887,44 +5361,50 @@
         <v>248</v>
       </c>
       <c r="F161" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G161" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D162" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E162" t="s">
         <v>248</v>
       </c>
       <c r="F162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G162" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H162">
+        <v>34830</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4933,90 +5413,102 @@
         <v>248</v>
       </c>
       <c r="F163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G163" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D164" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E164" t="s">
         <v>248</v>
       </c>
       <c r="F164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G164" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H164">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E165" t="s">
         <v>248</v>
       </c>
       <c r="F165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G165" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H165">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E166" t="s">
         <v>248</v>
       </c>
       <c r="F166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G166" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H166">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -5025,21 +5517,24 @@
         <v>248</v>
       </c>
       <c r="F167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -5048,113 +5543,128 @@
         <v>248</v>
       </c>
       <c r="F168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E169" t="s">
         <v>248</v>
       </c>
       <c r="F169" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H169">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E170" t="s">
         <v>248</v>
       </c>
       <c r="F170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G170" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H170">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E171" t="s">
         <v>248</v>
       </c>
       <c r="F171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G171" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H171">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D172" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E172" t="s">
         <v>248</v>
       </c>
       <c r="F172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G172" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H172">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5163,44 +5673,50 @@
         <v>248</v>
       </c>
       <c r="F173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G173" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E174" t="s">
         <v>248</v>
       </c>
       <c r="F174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G174" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H174">
+        <v>34830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5209,21 +5725,24 @@
         <v>248</v>
       </c>
       <c r="F175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G175" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -5232,21 +5751,24 @@
         <v>248</v>
       </c>
       <c r="F176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G176" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -5255,10 +5777,13 @@
         <v>248</v>
       </c>
       <c r="F177" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G177" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim_data/InternatCrickSalspartcleaneddata.xlsx
+++ b/data/interim_data/InternatCrickSalspartcleaneddata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22666beef4f99752/Documents/Data Science/Springboard/SpringboardCapstone2/data/interim_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4075C0EAA00B0F08E32D4C563DE90E837879CAAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480ADED8-2F94-4647-BD6A-D3A57773D37B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="4650" yWindow="2790" windowWidth="13860" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -829,8 +835,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +899,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -939,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +985,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,6 +1037,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,14 +1230,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1236,7 +1289,7 @@
         <v>59184</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1262,7 +1315,7 @@
         <v>59184</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1288,7 +1341,7 @@
         <v>59184</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1314,7 +1367,7 @@
         <v>59184</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1340,7 +1393,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1366,7 +1419,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1392,7 +1445,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1418,7 +1471,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1444,7 +1497,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1470,7 +1523,7 @@
         <v>39375</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1496,7 +1549,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,7 +1575,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1548,7 +1601,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1574,7 +1627,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1600,7 +1653,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1626,7 +1679,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1652,7 +1705,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1678,7 +1731,7 @@
         <v>12621</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1704,7 +1757,7 @@
         <v>12621</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1730,7 +1783,7 @@
         <v>12621</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1756,7 +1809,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1782,7 +1835,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1808,7 +1861,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1831,10 +1884,10 @@
         <v>262</v>
       </c>
       <c r="H25">
-        <v>495000.0000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>495000.00000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1857,10 +1910,10 @@
         <v>262</v>
       </c>
       <c r="H26">
-        <v>495000.0000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>495000.00000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1883,10 +1936,10 @@
         <v>262</v>
       </c>
       <c r="H27">
-        <v>495000.0000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>495000.00000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1909,10 +1962,10 @@
         <v>262</v>
       </c>
       <c r="H28">
-        <v>495000.0000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>495000.00000000012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1935,10 +1988,10 @@
         <v>262</v>
       </c>
       <c r="H29">
-        <v>495000.0000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>495000.00000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1964,7 +2017,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1990,7 +2043,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2016,7 +2069,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2042,7 +2095,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2068,7 +2121,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2094,7 +2147,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2120,7 +2173,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2143,10 +2196,10 @@
         <v>262</v>
       </c>
       <c r="H37">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2169,10 +2222,10 @@
         <v>262</v>
       </c>
       <c r="H38">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2195,10 +2248,10 @@
         <v>262</v>
       </c>
       <c r="H39">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2221,10 +2274,10 @@
         <v>262</v>
       </c>
       <c r="H40">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2247,10 +2300,10 @@
         <v>262</v>
       </c>
       <c r="H41">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2273,10 +2326,10 @@
         <v>262</v>
       </c>
       <c r="H42">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2299,10 +2352,10 @@
         <v>262</v>
       </c>
       <c r="H43">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2325,10 +2378,10 @@
         <v>262</v>
       </c>
       <c r="H44">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2351,10 +2404,10 @@
         <v>262</v>
       </c>
       <c r="H45">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2377,10 +2430,10 @@
         <v>262</v>
       </c>
       <c r="H46">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2403,10 +2456,10 @@
         <v>262</v>
       </c>
       <c r="H47">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2429,10 +2482,10 @@
         <v>262</v>
       </c>
       <c r="H48">
-        <v>99000.00000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>99000.000000000015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2458,7 +2511,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2484,7 +2537,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2510,7 +2563,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2536,7 +2589,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2562,7 +2615,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2588,7 +2641,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2614,7 +2667,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2640,7 +2693,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2666,7 +2719,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2692,7 +2745,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2718,7 +2771,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2744,7 +2797,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2770,7 +2823,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2796,7 +2849,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2822,7 +2875,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2848,7 +2901,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2874,7 +2927,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2900,7 +2953,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2926,7 +2979,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2952,7 +3005,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2978,7 +3031,7 @@
         <v>1210537</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3004,7 +3057,7 @@
         <v>807025</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3030,7 +3083,7 @@
         <v>807025</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3056,7 +3109,7 @@
         <v>688500</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3082,7 +3135,7 @@
         <v>688500</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3108,7 +3161,7 @@
         <v>59184</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3134,7 +3187,7 @@
         <v>607500</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3160,7 +3213,7 @@
         <v>567000</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3186,7 +3239,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3212,7 +3265,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3238,7 +3291,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3264,7 +3317,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3290,7 +3343,7 @@
         <v>222750</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3316,7 +3369,7 @@
         <v>222750</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3342,7 +3395,7 @@
         <v>222750</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3368,7 +3421,7 @@
         <v>222750</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3394,7 +3447,7 @@
         <v>222750</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3420,7 +3473,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3446,7 +3499,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3472,7 +3525,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3498,7 +3551,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3524,7 +3577,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3550,7 +3603,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3576,7 +3629,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3602,7 +3655,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3628,7 +3681,7 @@
         <v>202500</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3654,7 +3707,7 @@
         <v>202500</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3677,10 +3730,10 @@
         <v>264</v>
       </c>
       <c r="H96">
-        <v>60750.00000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>60750.000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3703,10 +3756,10 @@
         <v>264</v>
       </c>
       <c r="H97">
-        <v>60750.00000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>60750.000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3729,10 +3782,10 @@
         <v>264</v>
       </c>
       <c r="H98">
-        <v>60750.00000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>60750.000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>202500</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3781,10 +3834,10 @@
         <v>264</v>
       </c>
       <c r="H100">
-        <v>60750.00000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>60750.000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3810,7 +3863,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3836,7 +3889,7 @@
         <v>356400</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3862,7 +3915,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3888,7 +3941,7 @@
         <v>145800</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3911,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3940,7 +3993,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3963,10 +4016,10 @@
         <v>265</v>
       </c>
       <c r="H107">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3992,7 +4045,7 @@
         <v>166265.46</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4015,10 +4068,10 @@
         <v>265</v>
       </c>
       <c r="H109">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4044,7 +4097,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4070,7 +4123,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4096,7 +4149,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4122,7 +4175,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4145,10 +4198,10 @@
         <v>265</v>
       </c>
       <c r="H114">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4171,10 +4224,10 @@
         <v>265</v>
       </c>
       <c r="H115">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4200,7 +4253,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4226,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4252,7 +4305,7 @@
         <v>166265.46</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4278,7 +4331,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4301,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>69323.85000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>69323.850000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4327,10 +4380,10 @@
         <v>267</v>
       </c>
       <c r="H121">
-        <v>64800.00000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>64800.000000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4356,7 +4409,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4382,7 +4435,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4408,7 +4461,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4434,7 +4487,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4460,7 +4513,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4486,7 +4539,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4512,7 +4565,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4538,7 +4591,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4564,7 +4617,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4590,7 +4643,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4616,7 +4669,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4642,7 +4695,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4668,7 +4721,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4694,7 +4747,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4720,7 +4773,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4746,7 +4799,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4772,7 +4825,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4798,7 +4851,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4821,10 +4874,10 @@
         <v>268</v>
       </c>
       <c r="H140">
-        <v>64800.00000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>64800.000000000007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4850,7 +4903,7 @@
         <v>52650</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4876,7 +4929,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4902,7 +4955,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4928,7 +4981,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4954,7 +5007,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4980,7 +5033,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5006,7 +5059,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5032,7 +5085,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5058,7 +5111,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5084,7 +5137,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5110,7 +5163,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5136,7 +5189,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5162,7 +5215,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5188,7 +5241,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5214,7 +5267,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5240,7 +5293,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5266,7 +5319,7 @@
         <v>46170</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5292,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5318,7 +5371,7 @@
         <v>46170</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5344,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5370,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5396,7 +5449,7 @@
         <v>34830</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5422,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5448,7 +5501,7 @@
         <v>46170</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5474,7 +5527,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5500,7 +5553,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5526,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5552,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5578,7 +5631,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5604,7 +5657,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5630,7 +5683,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5656,7 +5709,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5682,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5708,7 +5761,7 @@
         <v>34830</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5734,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5760,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
